--- a/biology/Microbiologie/Milieu_King_B/Milieu_King_B.xlsx
+++ b/biology/Microbiologie/Milieu_King_B/Milieu_King_B.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le King B est un milieu de culture qui permet la culture d'êtres unicellulaires.
 </t>
@@ -511,7 +523,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mise en évidence de la pyoverdine des Pseudomonas du groupe fluorescent.
 </t>
@@ -542,7 +556,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>peptone dite "B"	20,0 g
 glycérol	10,0 g
@@ -577,7 +593,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">37 g de poudre par litre. Stérilisation classique. Ajouter 10 mL de glycérol après autoclavage.
 </t>
@@ -608,7 +626,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La pyoverdine jaunit le milieu. Cette molécule présente une fluorescence à 340 nm. Elle est insoluble dans le trichlorométhane (chloroforme).
 </t>
